--- a/xlsx/赫斯特国际集团_intext.xlsx
+++ b/xlsx/赫斯特国际集团_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>赫斯特国际集团</t>
   </si>
@@ -35,37 +35,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%96%AF%E7%89%B9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>赫斯特大樓</t>
+    <t>赫斯特大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>大眾傳媒</t>
+    <t>大众传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -95,15 +95,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
   </si>
   <si>
-    <t>纽约市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%B5%AB%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
@@ -113,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%A4%A2%E6%B3%A2%E4%B8%B9</t>
   </si>
   <si>
-    <t>柯夢波丹</t>
+    <t>柯梦波丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/17_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>17 (雜誌)</t>
+    <t>17 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%B0%9A%E5%85%88%E7%94%9F</t>
@@ -143,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%BA%97%E4%BD%B3%E4%BA%BA</t>
   </si>
   <si>
-    <t>美麗佳人</t>
+    <t>美丽佳人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%82%E5%BF%97</t>
@@ -155,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E8%AD%BD%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>惠譽國際</t>
+    <t>惠誉国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Forbes</t>
@@ -173,25 +167,25 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%99%BD%E5%AE%AE%E7%B0%A1%E5%A0%B1%E5%AE%A4%E5%BA%A7%E6%AC%A1%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-白宮簡報室座次表</t>
+    <t>Template talk-白宫简报室座次表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
@@ -239,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -257,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -275,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -311,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -347,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -383,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -419,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -503,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -1234,7 +1228,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -1260,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1289,10 +1283,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1318,10 +1312,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1347,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -1376,10 +1370,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1405,10 +1399,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1434,10 +1428,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1463,10 +1457,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1492,10 +1486,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1521,10 +1515,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1550,10 +1544,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1579,10 +1573,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1608,10 +1602,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1637,10 +1631,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1666,10 +1660,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1695,10 +1689,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1724,10 +1718,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1753,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1782,10 +1776,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1811,10 +1805,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1840,10 +1834,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1869,10 +1863,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1898,10 +1892,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1927,10 +1921,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1956,10 +1950,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1985,10 +1979,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2014,10 +2008,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2043,10 +2037,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2072,10 +2066,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2101,10 +2095,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2130,10 +2124,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2159,10 +2153,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2188,10 +2182,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2217,10 +2211,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2246,10 +2240,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2275,10 +2269,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2304,10 +2298,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2333,10 +2327,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2362,10 +2356,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2391,10 +2385,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2420,10 +2414,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2449,10 +2443,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2478,10 +2472,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2507,10 +2501,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2536,10 +2530,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2565,10 +2559,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2594,10 +2588,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2623,10 +2617,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2652,10 +2646,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2681,10 +2675,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2710,10 +2704,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2739,10 +2733,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2768,10 +2762,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2797,10 +2791,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2826,10 +2820,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2855,10 +2849,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2884,10 +2878,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2913,10 +2907,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2942,10 +2936,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2971,10 +2965,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3000,10 +2994,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3029,10 +3023,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3058,10 +3052,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3087,10 +3081,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3116,10 +3110,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3145,10 +3139,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3174,10 +3168,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3203,10 +3197,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3232,10 +3226,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3261,10 +3255,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3290,10 +3284,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
